--- a/Routes for JS.xlsx
+++ b/Routes for JS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmoulton\Documents\GitHub\Truck-Delivery-Status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="22995" windowHeight="9975"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -88,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,6 +224,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -242,18 +250,18 @@
       <sheetName val="Store Info"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12">
         <row r="4">
           <cell r="B4" t="str">
@@ -15393,7 +15401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15426,9 +15434,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15461,6 +15486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15637,23 +15679,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="5" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15661,48 +15703,48 @@
         <f>1+A1</f>
         <v>2</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <f>1+D1</f>
         <v>3</v>
       </c>
-      <c r="K1">
-        <f t="shared" ref="K1:T1" si="0">1+J1</f>
+      <c r="M1">
+        <f t="shared" ref="M1:V1" si="0">1+L1</f>
         <v>4</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N1">
-        <f>1+L1</f>
+      <c r="P1">
+        <f>1+N1</f>
         <v>6</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="275.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="275.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15716,62 +15758,64 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -15783,41 +15827,49 @@
         <v>IFS - Bedford Start</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE("      &lt;option value='",F6," ",G6," ",H6," ",I6,"'&gt;",D6,"&lt;/option&gt;")</f>
+        <f>CONCATENATE("      &lt;option value='",H6," ",I6," ",J6," ",K6,"'&gt;",D6,"&lt;/option&gt;")</f>
         <v xml:space="preserve">      &lt;option value='522 Donald Street Bedford NH 3110'&gt;IFS - Bedford Start&lt;/option&gt;</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="str">
+        <f>_xlfn.CONCAT("KF-",D6)</f>
+        <v>KF-IFS - Bedford Start</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xlfn.CONCAT(H6," ",I6," ",J6," ",K6)</f>
+        <v>522 Donald Street Bedford NH 3110</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3110</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>42.9686351</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>-71.505726600000003</v>
       </c>
-      <c r="L6" t="str">
-        <f>CONCATENATE("        var stop",B6," = {lat: ",J6,", lng:",K6,"};")</f>
+      <c r="N6" t="str">
+        <f>CONCATENATE("        var stop",B6," = {lat: ",L6,", lng:",M6,"};")</f>
         <v xml:space="preserve">        var stop1 = {lat: 42.9686351, lng:-71.5057266};</v>
       </c>
-      <c r="M6" t="str">
-        <f>CONCATENATE("          origins: [",LEFT(M7,LEN(M7)-1),"],")</f>
+      <c r="O6" t="str">
+        <f>CONCATENATE("          origins: [",LEFT(O7,LEN(O7)-1),"],")</f>
         <v xml:space="preserve">          origins: [stop1,stop2,stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11],</v>
       </c>
-      <c r="N6" t="str">
-        <f>CONCATENATE("          destination: [",LEFT(N7,LEN(N7)-1),"],")</f>
+      <c r="P6" t="str">
+        <f>CONCATENATE("          destination: [",LEFT(P7,LEN(P7)-1),"],")</f>
         <v xml:space="preserve">          destination: [stop2,stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,stop12],</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6-1</f>
         <v>11</v>
@@ -15831,53 +15883,61 @@
         <v>H-YORK</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E17" si="1">CONCATENATE("      &lt;option value='",F7," ",G7," ",H7," ",I7,"'&gt;",D7,"&lt;/option&gt;")</f>
+        <f>CONCATENATE("      &lt;option value='",H7," ",I7," ",J7," ",K7,"'&gt;",D7,"&lt;/option&gt;")</f>
         <v xml:space="preserve">      &lt;option value='5 Hannaford Drive York ME 03909'&gt;H-YORK&lt;/option&gt;</v>
       </c>
       <c r="F7" t="str">
+        <f t="shared" ref="F7:F17" si="1">_xlfn.CONCAT("KF-",D7)</f>
+        <v>KF-H-YORK</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G17" si="2">_xlfn.CONCAT(H7," ",I7," ",J7," ",K7)</f>
+        <v>5 Hannaford Drive York ME 03909</v>
+      </c>
+      <c r="H7" t="str">
         <f>HLOOKUP(D7,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>5 Hannaford Drive</v>
       </c>
-      <c r="G7" t="str">
+      <c r="I7" t="str">
         <f>HLOOKUP(D7,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>York</v>
       </c>
-      <c r="H7" t="str">
+      <c r="J7" t="str">
         <f>HLOOKUP(D7,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I7" t="str">
+      <c r="K7" t="str">
         <f>HLOOKUP(D7,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>03909</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
         <f>HLOOKUP(D7,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.150724400000001</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f>HLOOKUP(D7,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.672441800000001</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" ref="L7:L17" si="2">CONCATENATE("        var stop",B7," = {lat: ",J7,", lng:",K7,"};")</f>
+      <c r="N7" t="str">
+        <f>CONCATENATE("        var stop",B7," = {lat: ",L7,", lng:",M7,"};")</f>
         <v xml:space="preserve">        var stop2 = {lat: 43.1507244, lng:-70.6724418};</v>
       </c>
-      <c r="M7" t="str">
-        <f>CONCATENATE("stop",B6,",",M8)</f>
+      <c r="O7" t="str">
+        <f>CONCATENATE("stop",B6,",",O8)</f>
         <v>stop1,stop2,stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N7" t="str">
-        <f>CONCATENATE("stop",B7,",",N8)</f>
+      <c r="P7" t="str">
+        <f>CONCATENATE("stop",B7,",",P8)</f>
         <v>stop2,stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A17" si="3">A7-1</f>
         <v>10</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B7:B17" si="4">B7+1</f>
+        <f t="shared" ref="B8:B17" si="4">B7+1</f>
         <v>3</v>
       </c>
       <c r="D8" t="str">
@@ -15885,47 +15945,55 @@
         <v>H-WELLS</v>
       </c>
       <c r="E8" t="str">
+        <f>CONCATENATE("      &lt;option value='",H8," ",I8," ",J8," ",K8,"'&gt;",D8,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='(U.S. Route 1) 107 Wells Plaza Wells ME 04090'&gt;H-WELLS&lt;/option&gt;</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='(U.S. Route 1) 107 Wells Plaza Wells ME 04090'&gt;H-WELLS&lt;/option&gt;</v>
-      </c>
-      <c r="F8" t="str">
+        <v>KF-H-WELLS</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>(U.S. Route 1) 107 Wells Plaza Wells ME 04090</v>
+      </c>
+      <c r="H8" t="str">
         <f>HLOOKUP(D8,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>(U.S. Route 1) 107 Wells Plaza</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" t="str">
         <f>HLOOKUP(D8,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Wells</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <f>HLOOKUP(D8,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I8" t="str">
+      <c r="K8" t="str">
         <f>HLOOKUP(D8,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04090</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <f>HLOOKUP(D8,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.300550600000001</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f>HLOOKUP(D8,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.585842</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="2"/>
+      <c r="N8" t="str">
+        <f>CONCATENATE("        var stop",B8," = {lat: ",L8,", lng:",M8,"};")</f>
         <v xml:space="preserve">        var stop3 = {lat: 43.3005506, lng:-70.585842};</v>
       </c>
-      <c r="M8" t="str">
-        <f>CONCATENATE("stop",B7,",",M9)</f>
+      <c r="O8" t="str">
+        <f>CONCATENATE("stop",B7,",",O9)</f>
         <v>stop2,stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" ref="N8:N17" si="5">CONCATENATE("stop",B8,",",N9)</f>
+      <c r="P8" t="str">
+        <f>CONCATENATE("stop",B8,",",P9)</f>
         <v>stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -15939,47 +16007,55 @@
         <v>H-KENNEBUNK</v>
       </c>
       <c r="E9" t="str">
+        <f>CONCATENATE("      &lt;option value='",H9," ",I9," ",J9," ",K9,"'&gt;",D9,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='65 Portland Road Kennebunk ME 04043'&gt;H-KENNEBUNK&lt;/option&gt;</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='65 Portland Road Kennebunk ME 04043'&gt;H-KENNEBUNK&lt;/option&gt;</v>
-      </c>
-      <c r="F9" t="str">
+        <v>KF-H-KENNEBUNK</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>65 Portland Road Kennebunk ME 04043</v>
+      </c>
+      <c r="H9" t="str">
         <f>HLOOKUP(D9,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>65 Portland Road</v>
       </c>
-      <c r="G9" t="str">
+      <c r="I9" t="str">
         <f>HLOOKUP(D9,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Kennebunk</v>
       </c>
-      <c r="H9" t="str">
+      <c r="J9" t="str">
         <f>HLOOKUP(D9,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I9" t="str">
+      <c r="K9" t="str">
         <f>HLOOKUP(D9,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04043</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4">
         <f>HLOOKUP(D9,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.397926400000003</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f>HLOOKUP(D9,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.529542500000005</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="2"/>
+      <c r="N9" t="str">
+        <f>CONCATENATE("        var stop",B9," = {lat: ",L9,", lng:",M9,"};")</f>
         <v xml:space="preserve">        var stop4 = {lat: 43.3979264, lng:-70.5295425};</v>
       </c>
-      <c r="M9" t="str">
-        <f>CONCATENATE("stop",B8,",",M10)</f>
+      <c r="O9" t="str">
+        <f>CONCATENATE("stop",B8,",",O10)</f>
         <v>stop3,stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="5"/>
+      <c r="P9" t="str">
+        <f>CONCATENATE("stop",B9,",",P10)</f>
         <v>stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -15993,47 +16069,55 @@
         <v>H-BIDDEFORD</v>
       </c>
       <c r="E10" t="str">
+        <f>CONCATENATE("      &lt;option value='",H10," ",I10," ",J10," ",K10,"'&gt;",D10,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='299 Elm Street Biddeford ME 04005'&gt;H-BIDDEFORD&lt;/option&gt;</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='299 Elm Street Biddeford ME 04005'&gt;H-BIDDEFORD&lt;/option&gt;</v>
-      </c>
-      <c r="F10" t="str">
+        <v>KF-H-BIDDEFORD</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>299 Elm Street Biddeford ME 04005</v>
+      </c>
+      <c r="H10" t="str">
         <f>HLOOKUP(D10,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>299 Elm Street</v>
       </c>
-      <c r="G10" t="str">
+      <c r="I10" t="str">
         <f>HLOOKUP(D10,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Biddeford</v>
       </c>
-      <c r="H10" t="str">
+      <c r="J10" t="str">
         <f>HLOOKUP(D10,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I10" t="str">
+      <c r="K10" t="str">
         <f>HLOOKUP(D10,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04005</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4">
         <f>HLOOKUP(D10,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.488453300000003</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f>HLOOKUP(D10,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.465812299999996</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="2"/>
+      <c r="N10" t="str">
+        <f>CONCATENATE("        var stop",B10," = {lat: ",L10,", lng:",M10,"};")</f>
         <v xml:space="preserve">        var stop5 = {lat: 43.4884533, lng:-70.4658123};</v>
       </c>
-      <c r="M10" t="str">
-        <f>CONCATENATE("stop",B9,",",M11)</f>
+      <c r="O10" t="str">
+        <f>CONCATENATE("stop",B9,",",O11)</f>
         <v>stop4,stop5,stop6,stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="5"/>
+      <c r="P10" t="str">
+        <f>CONCATENATE("stop",B10,",",P11)</f>
         <v>stop5,stop6,stop7,stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -16047,47 +16131,55 @@
         <v>H-Old Orchard Beach</v>
       </c>
       <c r="E11" t="str">
+        <f>CONCATENATE("      &lt;option value='",H11," ",I11," ",J11," ",K11,"'&gt;",D11,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value=' 2 Cascade Rd Old Orchard Beach ME 04064'&gt;H-Old Orchard Beach&lt;/option&gt;</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value=' 2 Cascade Rd Old Orchard Beach ME 04064'&gt;H-Old Orchard Beach&lt;/option&gt;</v>
-      </c>
-      <c r="F11" t="str">
+        <v>KF-H-Old Orchard Beach</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v> 2 Cascade Rd Old Orchard Beach ME 04064</v>
+      </c>
+      <c r="H11" t="str">
         <f>HLOOKUP(D11,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v> 2 Cascade Rd</v>
       </c>
-      <c r="G11" t="str">
+      <c r="I11" t="str">
         <f>HLOOKUP(D11,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Old Orchard Beach</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <f>HLOOKUP(D11,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I11" t="str">
+      <c r="K11" t="str">
         <f>HLOOKUP(D11,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04064</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
         <f>HLOOKUP(D11,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.522672</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f>HLOOKUP(D11,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.379015999999993</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="2"/>
+      <c r="N11" t="str">
+        <f>CONCATENATE("        var stop",B11," = {lat: ",L11,", lng:",M11,"};")</f>
         <v xml:space="preserve">        var stop6 = {lat: 43.522672, lng:-70.379016};</v>
       </c>
-      <c r="M11" t="str">
-        <f>CONCATENATE("stop",B10,",",M12)</f>
+      <c r="O11" t="str">
+        <f>CONCATENATE("stop",B10,",",O12)</f>
         <v>stop5,stop6,stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" si="5"/>
+      <c r="P11" t="str">
+        <f>CONCATENATE("stop",B11,",",P12)</f>
         <v>stop6,stop7,stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -16101,47 +16193,55 @@
         <v>H-MILL CREEK</v>
       </c>
       <c r="E12" t="str">
+        <f>CONCATENATE("      &lt;option value='",H12," ",I12," ",J12," ",K12,"'&gt;",D12,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='50 Cottage Road So. Portland ME 04106'&gt;H-MILL CREEK&lt;/option&gt;</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='50 Cottage Road So. Portland ME 04106'&gt;H-MILL CREEK&lt;/option&gt;</v>
-      </c>
-      <c r="F12" t="str">
+        <v>KF-H-MILL CREEK</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>50 Cottage Road So. Portland ME 04106</v>
+      </c>
+      <c r="H12" t="str">
         <f>HLOOKUP(D12,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>50 Cottage Road</v>
       </c>
-      <c r="G12" t="str">
+      <c r="I12" t="str">
         <f>HLOOKUP(D12,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>So. Portland</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <f>HLOOKUP(D12,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I12" t="str">
+      <c r="K12" t="str">
         <f>HLOOKUP(D12,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04106</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4">
         <f>HLOOKUP(D12,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.637126600000002</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f>HLOOKUP(D12,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.250447399999999</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="2"/>
+      <c r="N12" t="str">
+        <f>CONCATENATE("        var stop",B12," = {lat: ",L12,", lng:",M12,"};")</f>
         <v xml:space="preserve">        var stop7 = {lat: 43.6371266, lng:-70.2504474};</v>
       </c>
-      <c r="M12" t="str">
-        <f>CONCATENATE("stop",B11,",",M13)</f>
+      <c r="O12" t="str">
+        <f>CONCATENATE("stop",B11,",",O13)</f>
         <v>stop6,stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="5"/>
+      <c r="P12" t="str">
+        <f>CONCATENATE("stop",B12,",",P13)</f>
         <v>stop7,stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -16155,47 +16255,55 @@
         <v>IGA - POND COVE (Cape Elizabeth)</v>
       </c>
       <c r="E13" t="str">
+        <f>CONCATENATE("      &lt;option value='",H13," ",I13," ",J13," ",K13,"'&gt;",D13,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='339 Ocean House Rd Cape Elizabeth ME 04107'&gt;IGA - POND COVE (Cape Elizabeth)&lt;/option&gt;</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='339 Ocean House Rd Cape Elizabeth ME 04107'&gt;IGA - POND COVE (Cape Elizabeth)&lt;/option&gt;</v>
-      </c>
-      <c r="F13" t="str">
+        <v>KF-IGA - POND COVE (Cape Elizabeth)</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>339 Ocean House Rd Cape Elizabeth ME 04107</v>
+      </c>
+      <c r="H13" t="str">
         <f>HLOOKUP(D13,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>339 Ocean House Rd</v>
       </c>
-      <c r="G13" t="str">
+      <c r="I13" t="str">
         <f>HLOOKUP(D13,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Cape Elizabeth</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <f>HLOOKUP(D13,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I13" t="str">
+      <c r="K13" t="str">
         <f>HLOOKUP(D13,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04107</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
         <f>HLOOKUP(D13,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.593409999999999</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f>HLOOKUP(D13,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.227376399999997</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="2"/>
+      <c r="N13" t="str">
+        <f>CONCATENATE("        var stop",B13," = {lat: ",L13,", lng:",M13,"};")</f>
         <v xml:space="preserve">        var stop8 = {lat: 43.59341, lng:-70.2273764};</v>
       </c>
-      <c r="M13" t="str">
-        <f>CONCATENATE("stop",B12,",",M14)</f>
+      <c r="O13" t="str">
+        <f>CONCATENATE("stop",B12,",",O14)</f>
         <v>stop7,stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="5"/>
+      <c r="P13" t="str">
+        <f>CONCATENATE("stop",B13,",",P14)</f>
         <v>stop8,stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -16209,47 +16317,55 @@
         <v>H-MAINE MALL</v>
       </c>
       <c r="E14" t="str">
+        <f>CONCATENATE("      &lt;option value='",H14," ",I14," ",J14," ",K14,"'&gt;",D14,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='415 Philbrook Avenue So. Portland ME   04106'&gt;H-MAINE MALL&lt;/option&gt;</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='415 Philbrook Avenue So. Portland ME   04106'&gt;H-MAINE MALL&lt;/option&gt;</v>
-      </c>
-      <c r="F14" t="str">
+        <v>KF-H-MAINE MALL</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>415 Philbrook Avenue So. Portland ME   04106</v>
+      </c>
+      <c r="H14" t="str">
         <f>HLOOKUP(D14,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>415 Philbrook Avenue</v>
       </c>
-      <c r="G14" t="str">
+      <c r="I14" t="str">
         <f>HLOOKUP(D14,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>So. Portland</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <f>HLOOKUP(D14,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v xml:space="preserve">ME  </v>
       </c>
-      <c r="I14" t="str">
+      <c r="K14" t="str">
         <f>HLOOKUP(D14,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04106</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4">
         <f>HLOOKUP(D14,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.634010000000004</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f>HLOOKUP(D14,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.331383000000002</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="2"/>
+      <c r="N14" t="str">
+        <f>CONCATENATE("        var stop",B14," = {lat: ",L14,", lng:",M14,"};")</f>
         <v xml:space="preserve">        var stop9 = {lat: 43.63401, lng:-70.331383};</v>
       </c>
-      <c r="M14" t="str">
-        <f>CONCATENATE("stop",B13,",",M15)</f>
+      <c r="O14" t="str">
+        <f>CONCATENATE("stop",B13,",",O15)</f>
         <v>stop8,stop9,stop10,stop11,</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="5"/>
+      <c r="P14" t="str">
+        <f>CONCATENATE("stop",B14,",",P15)</f>
         <v>stop9,stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -16263,47 +16379,55 @@
         <v>H-GORHAM</v>
       </c>
       <c r="E15" t="str">
+        <f>CONCATENATE("      &lt;option value='",H15," ",I15," ",J15," ",K15,"'&gt;",D15,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='99 Main Street Gorham ME 04038'&gt;H-GORHAM&lt;/option&gt;</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='99 Main Street Gorham ME 04038'&gt;H-GORHAM&lt;/option&gt;</v>
-      </c>
-      <c r="F15" t="str">
+        <v>KF-H-GORHAM</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>99 Main Street Gorham ME 04038</v>
+      </c>
+      <c r="H15" t="str">
         <f>HLOOKUP(D15,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>99 Main Street</v>
       </c>
-      <c r="G15" t="str">
+      <c r="I15" t="str">
         <f>HLOOKUP(D15,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Gorham</v>
       </c>
-      <c r="H15" t="str">
+      <c r="J15" t="str">
         <f>HLOOKUP(D15,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I15" t="str">
+      <c r="K15" t="str">
         <f>HLOOKUP(D15,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04038</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4">
         <f>HLOOKUP(D15,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.680045999999997</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <f>HLOOKUP(D15,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.438648999999998</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="2"/>
+      <c r="N15" t="str">
+        <f>CONCATENATE("        var stop",B15," = {lat: ",L15,", lng:",M15,"};")</f>
         <v xml:space="preserve">        var stop10 = {lat: 43.680046, lng:-70.438649};</v>
       </c>
-      <c r="M15" t="str">
-        <f>CONCATENATE("stop",B14,",",M16)</f>
+      <c r="O15" t="str">
+        <f>CONCATENATE("stop",B14,",",O16)</f>
         <v>stop9,stop10,stop11,</v>
       </c>
-      <c r="N15" t="str">
-        <f t="shared" si="5"/>
+      <c r="P15" t="str">
+        <f>CONCATENATE("stop",B15,",",P16)</f>
         <v>stop10,stop11,stop12,</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -16317,47 +16441,55 @@
         <v>H-CORNISH</v>
       </c>
       <c r="E16" t="str">
+        <f>CONCATENATE("      &lt;option value='",H16," ",I16," ",J16," ",K16,"'&gt;",D16,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='200 Maple Street Unit 3 Cornish ME 04020'&gt;H-CORNISH&lt;/option&gt;</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='200 Maple Street Unit 3 Cornish ME 04020'&gt;H-CORNISH&lt;/option&gt;</v>
-      </c>
-      <c r="F16" t="str">
+        <v>KF-H-CORNISH</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>200 Maple Street Unit 3 Cornish ME 04020</v>
+      </c>
+      <c r="H16" t="str">
         <f>HLOOKUP(D16,'[1]Store Info'!$4:$15,10,FALSE)</f>
         <v>200 Maple Street Unit 3</v>
       </c>
-      <c r="G16" t="str">
+      <c r="I16" t="str">
         <f>HLOOKUP(D16,'[1]Store Info'!$4:$15,11,FALSE)</f>
         <v>Cornish</v>
       </c>
-      <c r="H16" t="str">
+      <c r="J16" t="str">
         <f>HLOOKUP(D16,'[1]Store Info'!$4:$15,4,FALSE)</f>
         <v>ME</v>
       </c>
-      <c r="I16" t="str">
+      <c r="K16" t="str">
         <f>HLOOKUP(D16,'[1]Store Info'!$4:$15,12,FALSE)</f>
         <v>04020</v>
       </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4">
         <f>HLOOKUP(D16,'[1]Store Info'!$4:$23,19,FALSE)</f>
         <v>43.802378300000001</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <f>HLOOKUP(D16,'[1]Store Info'!$4:$23,20,FALSE)</f>
         <v>-70.825420600000001</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="2"/>
+      <c r="N16" t="str">
+        <f>CONCATENATE("        var stop",B16," = {lat: ",L16,", lng:",M16,"};")</f>
         <v xml:space="preserve">        var stop11 = {lat: 43.8023783, lng:-70.8254206};</v>
       </c>
-      <c r="M16" t="str">
-        <f>CONCATENATE("stop",B15,",",M17)</f>
+      <c r="O16" t="str">
+        <f>CONCATENATE("stop",B15,",",O17)</f>
         <v>stop10,stop11,</v>
       </c>
-      <c r="N16" t="str">
-        <f t="shared" si="5"/>
+      <c r="P16" t="str">
+        <f>CONCATENATE("stop",B16,",",P17)</f>
         <v>stop11,stop12,</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -16371,37 +16503,45 @@
         <v>IFS - Finish</v>
       </c>
       <c r="E17" t="str">
+        <f>CONCATENATE("      &lt;option value='",H17," ",I17," ",J17," ",K17,"'&gt;",D17,"&lt;/option&gt;")</f>
+        <v xml:space="preserve">      &lt;option value='522 Donald Street Bedford NH 3110'&gt;IFS - Finish&lt;/option&gt;</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      &lt;option value='522 Donald Street Bedford NH 3110'&gt;IFS - Finish&lt;/option&gt;</v>
-      </c>
-      <c r="F17" t="s">
+        <v>KF-IFS - Finish</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>522 Donald Street Bedford NH 3110</v>
+      </c>
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>21</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>3110</v>
       </c>
-      <c r="J17" s="4">
+      <c r="L17" s="4">
         <v>42.9686351</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>-71.505726600000003</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
+      <c r="N17" t="str">
+        <f>CONCATENATE("        var stop",B17," = {lat: ",L17,", lng:",M17,"};")</f>
         <v xml:space="preserve">        var stop12 = {lat: 42.9686351, lng:-71.5057266};</v>
       </c>
-      <c r="M17" t="str">
-        <f>CONCATENATE("stop",B16,",",M18)</f>
+      <c r="O17" t="str">
+        <f>CONCATENATE("stop",B16,",",O18)</f>
         <v>stop11,</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="5"/>
+      <c r="P17" t="str">
+        <f>CONCATENATE("stop",B17,",",P18)</f>
         <v>stop12,</v>
       </c>
     </row>
